--- a/data/horarios/horario_III_A.xlsx
+++ b/data/horarios/horario_III_A.xlsx
@@ -525,7 +525,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Cálculo (A105) - Teoría</t>
+          <t>Cálculo (A101) - Teoría</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
@@ -543,7 +543,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Cálculo (A105) - Teoría</t>
+          <t>Cálculo (A101) - Teoría</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr"/>
@@ -561,7 +561,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Cálculo (A105) - Teoría</t>
+          <t>Cálculo (A101) - Teoría</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
@@ -579,7 +579,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Cálculo (A105) - Teoría</t>
+          <t>Cálculo (A101) - Teoría</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr"/>
@@ -597,7 +597,7 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cálculo (A105) - Práctica</t>
+          <t>Cálculo (A101) - Práctica</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
@@ -615,7 +615,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Cálculo (A105) - Práctica</t>
+          <t>Cálculo (A101) - Práctica</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr"/>
